--- a/Modulo5/src/out/info_estados/California.xlsx
+++ b/Modulo5/src/out/info_estados/California.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="84">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>C</t>
@@ -695,14 +701,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>91325</v>
       </c>
       <c r="M2">
         <v>6001</v>
@@ -739,14 +745,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>81</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>107103</v>
       </c>
       <c r="M3">
         <v>6001</v>
@@ -783,14 +789,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>19952</v>
       </c>
       <c r="M4">
         <v>6001</v>
@@ -827,14 +833,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>5109</v>
       </c>
       <c r="M5">
         <v>6001</v>
@@ -871,14 +877,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3209</v>
       </c>
       <c r="M6">
         <v>6001</v>
@@ -915,14 +921,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="M7">
         <v>6003</v>
@@ -959,14 +965,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="M8">
         <v>6003</v>
@@ -1003,14 +1009,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>82</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="M9">
         <v>6003</v>
@@ -1047,14 +1053,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M10">
         <v>6003</v>
@@ -1091,14 +1097,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>82</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M11">
         <v>6003</v>
@@ -1135,14 +1141,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>1754</v>
       </c>
       <c r="M12">
         <v>6005</v>
@@ -1179,14 +1185,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>1950</v>
       </c>
       <c r="M13">
         <v>6005</v>
@@ -1223,14 +1229,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>82</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3606</v>
       </c>
       <c r="M14">
         <v>6005</v>
@@ -1267,14 +1273,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>82</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="M15">
         <v>6005</v>
@@ -1311,14 +1317,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>286</v>
       </c>
       <c r="M16">
         <v>6005</v>
@@ -1355,14 +1361,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>14272</v>
       </c>
       <c r="M17">
         <v>6007</v>
@@ -1399,14 +1405,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>81</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>9682</v>
       </c>
       <c r="M18">
         <v>6007</v>
@@ -1443,14 +1449,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>82</v>
       </c>
       <c r="K19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>15696</v>
       </c>
       <c r="M19">
         <v>6007</v>
@@ -1487,14 +1493,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>82</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>1442</v>
       </c>
       <c r="M20">
         <v>6007</v>
@@ -1531,14 +1537,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>82</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>1459</v>
       </c>
       <c r="M21">
         <v>6007</v>
@@ -1575,14 +1581,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>81</v>
       </c>
       <c r="K22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>2393</v>
       </c>
       <c r="M22">
         <v>6009</v>
@@ -1619,14 +1625,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>81</v>
       </c>
       <c r="K23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>2631</v>
       </c>
       <c r="M23">
         <v>6009</v>
@@ -1663,14 +1669,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>82</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>4903</v>
       </c>
       <c r="M24">
         <v>6009</v>
@@ -1707,14 +1713,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>82</v>
       </c>
       <c r="K25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>419</v>
       </c>
       <c r="M25">
         <v>6009</v>
@@ -1751,14 +1757,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>82</v>
       </c>
       <c r="K26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="M26">
         <v>6009</v>
@@ -1795,14 +1801,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>81</v>
       </c>
       <c r="K27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>585</v>
       </c>
       <c r="M27">
         <v>6011</v>
@@ -1839,14 +1845,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>81</v>
       </c>
       <c r="K28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>654</v>
       </c>
       <c r="M28">
         <v>6011</v>
@@ -1883,14 +1889,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>82</v>
       </c>
       <c r="K29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>1343</v>
       </c>
       <c r="M29">
         <v>6011</v>
@@ -1927,14 +1933,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>82</v>
       </c>
       <c r="K30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="M30">
         <v>6011</v>
@@ -1971,14 +1977,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>82</v>
       </c>
       <c r="K31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="M31">
         <v>6011</v>
@@ -2015,14 +2021,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>81</v>
       </c>
       <c r="K32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>46910</v>
       </c>
       <c r="M32">
         <v>6013</v>
@@ -2059,14 +2065,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>81</v>
       </c>
       <c r="K33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>69810</v>
       </c>
       <c r="M33">
         <v>6013</v>
@@ -2103,14 +2109,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>82</v>
       </c>
       <c r="K34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>28613</v>
       </c>
       <c r="M34">
         <v>6013</v>
@@ -2147,14 +2153,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>82</v>
       </c>
       <c r="K35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>6937</v>
       </c>
       <c r="M35">
         <v>6013</v>
@@ -2191,14 +2197,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>82</v>
       </c>
       <c r="K36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>3477</v>
       </c>
       <c r="M36">
         <v>6013</v>
@@ -2235,14 +2241,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>81</v>
       </c>
       <c r="K37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>1324</v>
       </c>
       <c r="M37">
         <v>6015</v>
@@ -2279,14 +2285,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>81</v>
       </c>
       <c r="K38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>1016</v>
       </c>
       <c r="M38">
         <v>6015</v>
@@ -2323,14 +2329,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>82</v>
       </c>
       <c r="K39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>1537</v>
       </c>
       <c r="M39">
         <v>6015</v>
@@ -2367,14 +2373,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>82</v>
       </c>
       <c r="K40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="M40">
         <v>6015</v>
@@ -2411,14 +2417,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>82</v>
       </c>
       <c r="K41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="M41">
         <v>6015</v>
@@ -2455,14 +2461,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>81</v>
       </c>
       <c r="K42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>9498</v>
       </c>
       <c r="M42">
         <v>6017</v>
@@ -2499,14 +2505,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>81</v>
       </c>
       <c r="K43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>10368</v>
       </c>
       <c r="M43">
         <v>6017</v>
@@ -2543,14 +2549,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>82</v>
       </c>
       <c r="K44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>17652</v>
       </c>
       <c r="M44">
         <v>6017</v>
@@ -2587,14 +2593,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>82</v>
       </c>
       <c r="K45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>2096</v>
       </c>
       <c r="M45">
         <v>6017</v>
@@ -2631,14 +2637,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>82</v>
       </c>
       <c r="K46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>1584</v>
       </c>
       <c r="M46">
         <v>6017</v>
@@ -2675,14 +2681,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>81</v>
       </c>
       <c r="K47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>21673</v>
       </c>
       <c r="M47">
         <v>6019</v>
@@ -2719,14 +2725,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>81</v>
       </c>
       <c r="K48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>32896</v>
       </c>
       <c r="M48">
         <v>6019</v>
@@ -2763,14 +2769,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>82</v>
       </c>
       <c r="K49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>37673</v>
       </c>
       <c r="M49">
         <v>6019</v>
@@ -2807,14 +2813,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>82</v>
       </c>
       <c r="K50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3894</v>
       </c>
       <c r="M50">
         <v>6019</v>
@@ -2851,14 +2857,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>82</v>
       </c>
       <c r="K51" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>5151</v>
       </c>
       <c r="M51">
         <v>6019</v>
@@ -2895,14 +2901,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>81</v>
       </c>
       <c r="K52" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>645</v>
       </c>
       <c r="M52">
         <v>6021</v>
@@ -2939,14 +2945,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>81</v>
       </c>
       <c r="K53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>650</v>
       </c>
       <c r="M53">
         <v>6021</v>
@@ -2983,14 +2989,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>82</v>
       </c>
       <c r="K54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>1700</v>
       </c>
       <c r="M54">
         <v>6021</v>
@@ -3027,14 +3033,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>82</v>
       </c>
       <c r="K55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="M55">
         <v>6021</v>
@@ -3071,14 +3077,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>82</v>
       </c>
       <c r="K56" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="M56">
         <v>6021</v>
@@ -3115,14 +3121,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>81</v>
       </c>
       <c r="K57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>13246</v>
       </c>
       <c r="M57">
         <v>6023</v>
@@ -3159,14 +3165,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>81</v>
       </c>
       <c r="K58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>6037</v>
       </c>
       <c r="M58">
         <v>6023</v>
@@ -3203,14 +3209,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>82</v>
       </c>
       <c r="K59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>4614</v>
       </c>
       <c r="M59">
         <v>6023</v>
@@ -3247,14 +3253,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>82</v>
       </c>
       <c r="K60" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="M60">
         <v>6023</v>
@@ -3291,14 +3297,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>82</v>
       </c>
       <c r="K61" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="M61">
         <v>6023</v>
@@ -3335,14 +3341,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>81</v>
       </c>
       <c r="K62" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>2732</v>
       </c>
       <c r="M62">
         <v>6025</v>
@@ -3379,14 +3385,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>81</v>
       </c>
       <c r="K63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>5744</v>
       </c>
       <c r="M63">
         <v>6025</v>
@@ -3423,14 +3429,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>82</v>
       </c>
       <c r="K64" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>2223</v>
       </c>
       <c r="M64">
         <v>6025</v>
@@ -3467,14 +3473,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>82</v>
       </c>
       <c r="K65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="M65">
         <v>6025</v>
@@ -3511,14 +3517,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>82</v>
       </c>
       <c r="K66" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>437</v>
       </c>
       <c r="M66">
         <v>6025</v>
@@ -3555,14 +3561,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>81</v>
       </c>
       <c r="K67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>958</v>
       </c>
       <c r="M67">
         <v>6027</v>
@@ -3599,14 +3605,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>81</v>
       </c>
       <c r="K68" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>757</v>
       </c>
       <c r="M68">
         <v>6027</v>
@@ -3643,14 +3649,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>82</v>
       </c>
       <c r="K69" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>1415</v>
       </c>
       <c r="M69">
         <v>6027</v>
@@ -3687,14 +3693,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>82</v>
       </c>
       <c r="K70" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="M70">
         <v>6027</v>
@@ -3731,14 +3737,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>82</v>
       </c>
       <c r="K71" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="M71">
         <v>6027</v>
@@ -3775,14 +3781,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>81</v>
       </c>
       <c r="K72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>13476</v>
       </c>
       <c r="M72">
         <v>6029</v>
@@ -3819,14 +3825,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>81</v>
       </c>
       <c r="K73" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>19105</v>
       </c>
       <c r="M73">
         <v>6029</v>
@@ -3863,14 +3869,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>82</v>
       </c>
       <c r="K74" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>33839</v>
       </c>
       <c r="M74">
         <v>6029</v>
@@ -3907,14 +3913,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>82</v>
       </c>
       <c r="K75" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>2932</v>
       </c>
       <c r="M75">
         <v>6029</v>
@@ -3951,14 +3957,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>82</v>
       </c>
       <c r="K76" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>4918</v>
       </c>
       <c r="M76">
         <v>6029</v>
@@ -3995,14 +4001,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>81</v>
       </c>
       <c r="K77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>2549</v>
       </c>
       <c r="M77">
         <v>6031</v>
@@ -4039,14 +4045,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>81</v>
       </c>
       <c r="K78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>3922</v>
       </c>
       <c r="M78">
         <v>6031</v>
@@ -4083,14 +4089,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>82</v>
       </c>
       <c r="K79" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>7047</v>
       </c>
       <c r="M79">
         <v>6031</v>
@@ -4127,14 +4133,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>82</v>
       </c>
       <c r="K80" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="M80">
         <v>6031</v>
@@ -4171,14 +4177,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>82</v>
       </c>
       <c r="K81" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>867</v>
       </c>
       <c r="M81">
         <v>6031</v>
@@ -4215,14 +4221,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>81</v>
       </c>
       <c r="K82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>2705</v>
       </c>
       <c r="M82">
         <v>6033</v>
@@ -4259,14 +4265,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>81</v>
       </c>
       <c r="K83" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>2409</v>
       </c>
       <c r="M83">
         <v>6033</v>
@@ -4303,14 +4309,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>82</v>
       </c>
       <c r="K84" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>2262</v>
       </c>
       <c r="M84">
         <v>6033</v>
@@ -4347,14 +4353,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>82</v>
       </c>
       <c r="K85" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="M85">
         <v>6033</v>
@@ -4391,14 +4397,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>82</v>
       </c>
       <c r="K86" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="M86">
         <v>6033</v>
@@ -4435,14 +4441,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>81</v>
       </c>
       <c r="K87" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>771</v>
       </c>
       <c r="M87">
         <v>6035</v>
@@ -4479,14 +4485,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>81</v>
       </c>
       <c r="K88" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>691</v>
       </c>
       <c r="M88">
         <v>6035</v>
@@ -4523,14 +4529,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>82</v>
       </c>
       <c r="K89" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="M89">
         <v>6035</v>
@@ -4567,14 +4573,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>82</v>
       </c>
       <c r="K90" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="M90">
         <v>6035</v>
@@ -4611,14 +4617,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>82</v>
       </c>
       <c r="K91" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="M91">
         <v>6035</v>
@@ -4655,14 +4661,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>81</v>
       </c>
       <c r="K92" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>434657</v>
       </c>
       <c r="M92">
         <v>6037</v>
@@ -4699,14 +4705,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>81</v>
       </c>
       <c r="K93" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>590503</v>
       </c>
       <c r="M93">
         <v>6037</v>
@@ -4743,14 +4749,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>82</v>
       </c>
       <c r="K94" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>179131</v>
       </c>
       <c r="M94">
         <v>6037</v>
@@ -4787,14 +4793,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>82</v>
       </c>
       <c r="K95" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>33560</v>
       </c>
       <c r="M95">
         <v>6037</v>
@@ -4831,14 +4837,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>82</v>
       </c>
       <c r="K96" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>30776</v>
       </c>
       <c r="M96">
         <v>6037</v>
@@ -4875,14 +4881,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>81</v>
       </c>
       <c r="K97" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>3627</v>
       </c>
       <c r="M97">
         <v>6039</v>
@@ -4919,14 +4925,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>81</v>
       </c>
       <c r="K98" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>4832</v>
       </c>
       <c r="M98">
         <v>6039</v>
@@ -4963,14 +4969,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>82</v>
       </c>
       <c r="K99" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>8248</v>
       </c>
       <c r="M99">
         <v>6039</v>
@@ -5007,14 +5013,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>82</v>
       </c>
       <c r="K100" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>701</v>
       </c>
       <c r="M100">
         <v>6039</v>
@@ -5051,14 +5057,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>82</v>
       </c>
       <c r="K101" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>1075</v>
       </c>
       <c r="M101">
         <v>6039</v>
@@ -5095,14 +5101,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>81</v>
       </c>
       <c r="K102" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>19849</v>
       </c>
       <c r="M102">
         <v>6041</v>
@@ -5139,14 +5145,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>81</v>
       </c>
       <c r="K103" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>27239</v>
       </c>
       <c r="M103">
         <v>6041</v>
@@ -5183,14 +5189,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>82</v>
       </c>
       <c r="K104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>6410</v>
       </c>
       <c r="M104">
         <v>6041</v>
@@ -5227,14 +5233,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>82</v>
       </c>
       <c r="K105" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>2319</v>
       </c>
       <c r="M105">
         <v>6041</v>
@@ -5271,14 +5277,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>82</v>
       </c>
       <c r="K106" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>597</v>
       </c>
       <c r="M106">
         <v>6041</v>
@@ -5315,14 +5321,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>81</v>
       </c>
       <c r="K107" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>1051</v>
       </c>
       <c r="M107">
         <v>6043</v>
@@ -5359,14 +5365,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>81</v>
       </c>
       <c r="K108" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>964</v>
       </c>
       <c r="M108">
         <v>6043</v>
@@ -5403,14 +5409,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>82</v>
       </c>
       <c r="K109" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>1941</v>
       </c>
       <c r="M109">
         <v>6043</v>
@@ -5447,14 +5453,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>82</v>
       </c>
       <c r="K110" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="M110">
         <v>6043</v>
@@ -5491,14 +5497,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>82</v>
       </c>
       <c r="K111" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="M111">
         <v>6043</v>
@@ -5535,14 +5541,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>81</v>
       </c>
       <c r="K112" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>4655</v>
       </c>
       <c r="M112">
         <v>6045</v>
@@ -5579,14 +5585,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>81</v>
       </c>
       <c r="K113" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>2691</v>
       </c>
       <c r="M113">
         <v>6045</v>
@@ -5623,14 +5629,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>82</v>
       </c>
       <c r="K114" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>1770</v>
       </c>
       <c r="M114">
         <v>6045</v>
@@ -5667,14 +5673,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>82</v>
       </c>
       <c r="K115" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="M115">
         <v>6045</v>
@@ -5711,14 +5717,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>82</v>
       </c>
       <c r="K116" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="M116">
         <v>6045</v>
@@ -5755,14 +5761,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>81</v>
       </c>
       <c r="K117" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>5191</v>
       </c>
       <c r="M117">
         <v>6047</v>
@@ -5799,14 +5805,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>81</v>
       </c>
       <c r="K118" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>7170</v>
       </c>
       <c r="M118">
         <v>6047</v>
@@ -5843,14 +5849,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>82</v>
       </c>
       <c r="K119" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>6713</v>
       </c>
       <c r="M119">
         <v>6047</v>
@@ -5887,14 +5893,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>82</v>
       </c>
       <c r="K120" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>572</v>
       </c>
       <c r="M120">
         <v>6047</v>
@@ -5931,14 +5937,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>82</v>
       </c>
       <c r="K121" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>850</v>
       </c>
       <c r="M121">
         <v>6047</v>
@@ -5975,14 +5981,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>81</v>
       </c>
       <c r="K122" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="M122">
         <v>6049</v>
@@ -6019,14 +6025,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>81</v>
       </c>
       <c r="K123" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="M123">
         <v>6049</v>
@@ -6063,14 +6069,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>82</v>
       </c>
       <c r="K124" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>1020</v>
       </c>
       <c r="M124">
         <v>6049</v>
@@ -6107,14 +6113,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>82</v>
       </c>
       <c r="K125" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="M125">
         <v>6049</v>
@@ -6151,14 +6157,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>82</v>
       </c>
       <c r="K126" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="M126">
         <v>6049</v>
@@ -6195,14 +6201,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>81</v>
       </c>
       <c r="K127" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>918</v>
       </c>
       <c r="M127">
         <v>6051</v>
@@ -6239,14 +6245,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>81</v>
       </c>
       <c r="K128" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>756</v>
       </c>
       <c r="M128">
         <v>6051</v>
@@ -6283,14 +6289,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>82</v>
       </c>
       <c r="K129" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>831</v>
       </c>
       <c r="M129">
         <v>6051</v>
@@ -6327,14 +6333,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>82</v>
       </c>
       <c r="K130" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="M130">
         <v>6051</v>
@@ -6371,14 +6377,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>82</v>
       </c>
       <c r="K131" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="M131">
         <v>6051</v>
@@ -6415,14 +6421,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>81</v>
       </c>
       <c r="K132" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>12895</v>
       </c>
       <c r="M132">
         <v>6053</v>
@@ -6459,14 +6465,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>81</v>
       </c>
       <c r="K133" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>17127</v>
       </c>
       <c r="M133">
         <v>6053</v>
@@ -6503,14 +6509,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>82</v>
       </c>
       <c r="K134" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>8080</v>
       </c>
       <c r="M134">
         <v>6053</v>
@@ -6547,14 +6553,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>82</v>
       </c>
       <c r="K135" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>1913</v>
       </c>
       <c r="M135">
         <v>6053</v>
@@ -6591,14 +6597,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>82</v>
       </c>
       <c r="K136" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>957</v>
       </c>
       <c r="M136">
         <v>6053</v>
@@ -6635,14 +6641,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>81</v>
       </c>
       <c r="K137" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>4782</v>
       </c>
       <c r="M137">
         <v>6055</v>
@@ -6679,14 +6685,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>81</v>
       </c>
       <c r="K138" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>7371</v>
       </c>
       <c r="M138">
         <v>6055</v>
@@ -6723,14 +6729,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>82</v>
       </c>
       <c r="K139" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>4001</v>
       </c>
       <c r="M139">
         <v>6055</v>
@@ -6767,14 +6773,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>82</v>
       </c>
       <c r="K140" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>821</v>
       </c>
       <c r="M140">
         <v>6055</v>
@@ -6811,14 +6817,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>82</v>
       </c>
       <c r="K141" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>387</v>
       </c>
       <c r="M141">
         <v>6055</v>
@@ -6855,14 +6861,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>81</v>
       </c>
       <c r="K142" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>8473</v>
       </c>
       <c r="M142">
         <v>6057</v>
@@ -6899,14 +6905,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>81</v>
       </c>
       <c r="K143" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>5592</v>
       </c>
       <c r="M143">
         <v>6057</v>
@@ -6943,14 +6949,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>82</v>
       </c>
       <c r="K144" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>7629</v>
       </c>
       <c r="M144">
         <v>6057</v>
@@ -6987,14 +6993,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>82</v>
       </c>
       <c r="K145" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>890</v>
       </c>
       <c r="M145">
         <v>6057</v>
@@ -7031,14 +7037,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>82</v>
       </c>
       <c r="K146" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>549</v>
       </c>
       <c r="M146">
         <v>6057</v>
@@ -7075,14 +7081,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>81</v>
       </c>
       <c r="K147" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>100837</v>
       </c>
       <c r="M147">
         <v>6059</v>
@@ -7119,14 +7125,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>81</v>
       </c>
       <c r="K148" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>123724</v>
       </c>
       <c r="M148">
         <v>6059</v>
@@ -7163,14 +7169,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>82</v>
       </c>
       <c r="K149" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>146889</v>
       </c>
       <c r="M149">
         <v>6059</v>
@@ -7207,14 +7213,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>82</v>
       </c>
       <c r="K150" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>21286</v>
       </c>
       <c r="M150">
         <v>6059</v>
@@ -7251,14 +7257,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>82</v>
       </c>
       <c r="K151" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>16845</v>
       </c>
       <c r="M151">
         <v>6059</v>
@@ -7295,14 +7301,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>81</v>
       </c>
       <c r="K152" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>12788</v>
       </c>
       <c r="M152">
         <v>6061</v>
@@ -7339,14 +7345,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>81</v>
       </c>
       <c r="K153" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>17300</v>
       </c>
       <c r="M153">
         <v>6061</v>
@@ -7383,14 +7389,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>82</v>
       </c>
       <c r="K154" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>25701</v>
       </c>
       <c r="M154">
         <v>6061</v>
@@ -7427,14 +7433,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>82</v>
       </c>
       <c r="K155" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>3365</v>
       </c>
       <c r="M155">
         <v>6061</v>
@@ -7471,14 +7477,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>82</v>
       </c>
       <c r="K156" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>2213</v>
       </c>
       <c r="M156">
         <v>6061</v>
@@ -7515,14 +7521,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>81</v>
       </c>
       <c r="K157" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>1477</v>
       </c>
       <c r="M157">
         <v>6063</v>
@@ -7559,14 +7565,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>81</v>
       </c>
       <c r="K158" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>1210</v>
       </c>
       <c r="M158">
         <v>6063</v>
@@ -7603,14 +7609,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>82</v>
       </c>
       <c r="K159" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>2589</v>
       </c>
       <c r="M159">
         <v>6063</v>
@@ -7647,14 +7653,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>82</v>
       </c>
       <c r="K160" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="M160">
         <v>6063</v>
@@ -7691,14 +7697,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>82</v>
       </c>
       <c r="K161" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="M161">
         <v>6063</v>
@@ -7735,14 +7741,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>81</v>
       </c>
       <c r="K162" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>47989</v>
       </c>
       <c r="M162">
         <v>6065</v>
@@ -7779,14 +7785,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>81</v>
       </c>
       <c r="K163" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>73725</v>
       </c>
       <c r="M163">
         <v>6065</v>
@@ -7823,14 +7829,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>82</v>
       </c>
       <c r="K164" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>82815</v>
       </c>
       <c r="M164">
         <v>6065</v>
@@ -7867,14 +7873,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>82</v>
       </c>
       <c r="K165" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>7503</v>
       </c>
       <c r="M165">
         <v>6065</v>
@@ -7911,14 +7917,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>82</v>
       </c>
       <c r="K166" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>7233</v>
       </c>
       <c r="M166">
         <v>6065</v>
@@ -7955,14 +7961,14 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167">
-        <v>3</v>
+      <c r="J167" t="s">
+        <v>81</v>
       </c>
       <c r="K167" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>50568</v>
       </c>
       <c r="M167">
         <v>6067</v>
@@ -7999,14 +8005,14 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>3</v>
+      <c r="J168" t="s">
+        <v>81</v>
       </c>
       <c r="K168" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>68249</v>
       </c>
       <c r="M168">
         <v>6067</v>
@@ -8043,14 +8049,14 @@
       <c r="I169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>3</v>
+      <c r="J169" t="s">
+        <v>82</v>
       </c>
       <c r="K169" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>43100</v>
       </c>
       <c r="M169">
         <v>6067</v>
@@ -8087,14 +8093,14 @@
       <c r="I170">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>3</v>
+      <c r="J170" t="s">
+        <v>82</v>
       </c>
       <c r="K170" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>7207</v>
       </c>
       <c r="M170">
         <v>6067</v>
@@ -8131,14 +8137,14 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>3</v>
+      <c r="J171" t="s">
+        <v>82</v>
       </c>
       <c r="K171" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>5053</v>
       </c>
       <c r="M171">
         <v>6067</v>
@@ -8175,14 +8181,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>3</v>
+      <c r="J172" t="s">
+        <v>81</v>
       </c>
       <c r="K172" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>1440</v>
       </c>
       <c r="M172">
         <v>6069</v>
@@ -8219,14 +8225,14 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>3</v>
+      <c r="J173" t="s">
+        <v>81</v>
       </c>
       <c r="K173" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>2023</v>
       </c>
       <c r="M173">
         <v>6069</v>
@@ -8263,14 +8269,14 @@
       <c r="I174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>3</v>
+      <c r="J174" t="s">
+        <v>82</v>
       </c>
       <c r="K174" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>1456</v>
       </c>
       <c r="M174">
         <v>6069</v>
@@ -8307,14 +8313,14 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="J175">
-        <v>3</v>
+      <c r="J175" t="s">
+        <v>82</v>
       </c>
       <c r="K175" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="M175">
         <v>6069</v>
@@ -8351,14 +8357,14 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>3</v>
+      <c r="J176" t="s">
+        <v>82</v>
       </c>
       <c r="K176" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="M176">
         <v>6069</v>
@@ -8395,14 +8401,14 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>3</v>
+      <c r="J177" t="s">
+        <v>81</v>
       </c>
       <c r="K177" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>51771</v>
       </c>
       <c r="M177">
         <v>6071</v>
@@ -8439,14 +8445,14 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" t="s">
+        <v>81</v>
       </c>
       <c r="K178" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>71247</v>
       </c>
       <c r="M178">
         <v>6071</v>
@@ -8483,14 +8489,14 @@
       <c r="I179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>3</v>
+      <c r="J179" t="s">
+        <v>82</v>
       </c>
       <c r="K179" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>69187</v>
       </c>
       <c r="M179">
         <v>6071</v>
@@ -8527,14 +8533,14 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>3</v>
+      <c r="J180" t="s">
+        <v>82</v>
       </c>
       <c r="K180" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>5884</v>
       </c>
       <c r="M180">
         <v>6071</v>
@@ -8571,14 +8577,14 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>3</v>
+      <c r="J181" t="s">
+        <v>82</v>
       </c>
       <c r="K181" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>8166</v>
       </c>
       <c r="M181">
         <v>6071</v>
@@ -8615,14 +8621,14 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182">
-        <v>3</v>
+      <c r="J182" t="s">
+        <v>81</v>
       </c>
       <c r="K182" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>111899</v>
       </c>
       <c r="M182">
         <v>6073</v>
@@ -8659,14 +8665,14 @@
       <c r="I183">
         <v>1</v>
       </c>
-      <c r="J183">
-        <v>3</v>
+      <c r="J183" t="s">
+        <v>81</v>
       </c>
       <c r="K183" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>139814</v>
       </c>
       <c r="M183">
         <v>6073</v>
@@ -8703,14 +8709,14 @@
       <c r="I184">
         <v>1</v>
       </c>
-      <c r="J184">
-        <v>3</v>
+      <c r="J184" t="s">
+        <v>82</v>
       </c>
       <c r="K184" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>124256</v>
       </c>
       <c r="M184">
         <v>6073</v>
@@ -8747,14 +8753,14 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185">
-        <v>3</v>
+      <c r="J185" t="s">
+        <v>82</v>
       </c>
       <c r="K185" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>16573</v>
       </c>
       <c r="M185">
         <v>6073</v>
@@ -8791,14 +8797,14 @@
       <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186">
-        <v>3</v>
+      <c r="J186" t="s">
+        <v>82</v>
       </c>
       <c r="K186" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>12276</v>
       </c>
       <c r="M186">
         <v>6073</v>
@@ -8835,14 +8841,14 @@
       <c r="I187">
         <v>1</v>
       </c>
-      <c r="J187">
-        <v>3</v>
+      <c r="J187" t="s">
+        <v>81</v>
       </c>
       <c r="K187" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>67192</v>
       </c>
       <c r="M187">
         <v>6075</v>
@@ -8879,14 +8885,14 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>3</v>
+      <c r="J188" t="s">
+        <v>81</v>
       </c>
       <c r="K188" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>85071</v>
       </c>
       <c r="M188">
         <v>6075</v>
@@ -8923,14 +8929,14 @@
       <c r="I189">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>3</v>
+      <c r="J189" t="s">
+        <v>82</v>
       </c>
       <c r="K189" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>7245</v>
       </c>
       <c r="M189">
         <v>6075</v>
@@ -8967,14 +8973,14 @@
       <c r="I190">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>3</v>
+      <c r="J190" t="s">
+        <v>82</v>
       </c>
       <c r="K190" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>2964</v>
       </c>
       <c r="M190">
         <v>6075</v>
@@ -9011,14 +9017,14 @@
       <c r="I191">
         <v>1</v>
       </c>
-      <c r="J191">
-        <v>3</v>
+      <c r="J191" t="s">
+        <v>82</v>
       </c>
       <c r="K191" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>1085</v>
       </c>
       <c r="M191">
         <v>6075</v>
@@ -9055,14 +9061,14 @@
       <c r="I192">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>3</v>
+      <c r="J192" t="s">
+        <v>81</v>
       </c>
       <c r="K192" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>16330</v>
       </c>
       <c r="M192">
         <v>6077</v>
@@ -9099,14 +9105,14 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193">
-        <v>3</v>
+      <c r="J193" t="s">
+        <v>81</v>
       </c>
       <c r="K193" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>25119</v>
       </c>
       <c r="M193">
         <v>6077</v>
@@ -9143,14 +9149,14 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="J194">
-        <v>3</v>
+      <c r="J194" t="s">
+        <v>82</v>
       </c>
       <c r="K194" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>22043</v>
       </c>
       <c r="M194">
         <v>6077</v>
@@ -9187,14 +9193,14 @@
       <c r="I195">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>3</v>
+      <c r="J195" t="s">
+        <v>82</v>
       </c>
       <c r="K195" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>2326</v>
       </c>
       <c r="M195">
         <v>6077</v>
@@ -9231,14 +9237,14 @@
       <c r="I196">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>3</v>
+      <c r="J196" t="s">
+        <v>82</v>
       </c>
       <c r="K196" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>2634</v>
       </c>
       <c r="M196">
         <v>6077</v>
@@ -9275,14 +9281,14 @@
       <c r="I197">
         <v>1</v>
       </c>
-      <c r="J197">
-        <v>3</v>
+      <c r="J197" t="s">
+        <v>81</v>
       </c>
       <c r="K197" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>16148</v>
       </c>
       <c r="M197">
         <v>6079</v>
@@ -9319,14 +9325,14 @@
       <c r="I198">
         <v>1</v>
       </c>
-      <c r="J198">
-        <v>3</v>
+      <c r="J198" t="s">
+        <v>81</v>
       </c>
       <c r="K198" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>16834</v>
       </c>
       <c r="M198">
         <v>6079</v>
@@ -9363,14 +9369,14 @@
       <c r="I199">
         <v>1</v>
       </c>
-      <c r="J199">
-        <v>3</v>
+      <c r="J199" t="s">
+        <v>82</v>
       </c>
       <c r="K199" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>19314</v>
       </c>
       <c r="M199">
         <v>6079</v>
@@ -9407,14 +9413,14 @@
       <c r="I200">
         <v>1</v>
       </c>
-      <c r="J200">
-        <v>3</v>
+      <c r="J200" t="s">
+        <v>82</v>
       </c>
       <c r="K200" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>2981</v>
       </c>
       <c r="M200">
         <v>6079</v>
@@ -9451,14 +9457,14 @@
       <c r="I201">
         <v>1</v>
       </c>
-      <c r="J201">
-        <v>3</v>
+      <c r="J201" t="s">
+        <v>82</v>
       </c>
       <c r="K201" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>2130</v>
       </c>
       <c r="M201">
         <v>6079</v>
@@ -9495,14 +9501,14 @@
       <c r="I202">
         <v>1</v>
       </c>
-      <c r="J202">
-        <v>3</v>
+      <c r="J202" t="s">
+        <v>81</v>
       </c>
       <c r="K202" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>30004</v>
       </c>
       <c r="M202">
         <v>6081</v>
@@ -9539,14 +9545,14 @@
       <c r="I203">
         <v>1</v>
       </c>
-      <c r="J203">
-        <v>3</v>
+      <c r="J203" t="s">
+        <v>81</v>
       </c>
       <c r="K203" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>47359</v>
       </c>
       <c r="M203">
         <v>6081</v>
@@ -9583,14 +9589,14 @@
       <c r="I204">
         <v>1</v>
       </c>
-      <c r="J204">
-        <v>3</v>
+      <c r="J204" t="s">
+        <v>82</v>
       </c>
       <c r="K204" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>12985</v>
       </c>
       <c r="M204">
         <v>6081</v>
@@ -9627,14 +9633,14 @@
       <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205">
-        <v>3</v>
+      <c r="J205" t="s">
+        <v>82</v>
       </c>
       <c r="K205" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>3868</v>
       </c>
       <c r="M205">
         <v>6081</v>
@@ -9671,14 +9677,14 @@
       <c r="I206">
         <v>1</v>
       </c>
-      <c r="J206">
-        <v>3</v>
+      <c r="J206" t="s">
+        <v>82</v>
       </c>
       <c r="K206" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>1500</v>
       </c>
       <c r="M206">
         <v>6081</v>
@@ -9715,14 +9721,14 @@
       <c r="I207">
         <v>1</v>
       </c>
-      <c r="J207">
-        <v>3</v>
+      <c r="J207" t="s">
+        <v>81</v>
       </c>
       <c r="K207" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>22977</v>
       </c>
       <c r="M207">
         <v>6083</v>
@@ -9759,14 +9765,14 @@
       <c r="I208">
         <v>1</v>
       </c>
-      <c r="J208">
-        <v>3</v>
+      <c r="J208" t="s">
+        <v>81</v>
       </c>
       <c r="K208" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>23544</v>
       </c>
       <c r="M208">
         <v>6083</v>
@@ -9803,14 +9809,14 @@
       <c r="I209">
         <v>1</v>
       </c>
-      <c r="J209">
-        <v>3</v>
+      <c r="J209" t="s">
+        <v>82</v>
       </c>
       <c r="K209" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>18168</v>
       </c>
       <c r="M209">
         <v>6083</v>
@@ -9847,14 +9853,14 @@
       <c r="I210">
         <v>1</v>
       </c>
-      <c r="J210">
-        <v>3</v>
+      <c r="J210" t="s">
+        <v>82</v>
       </c>
       <c r="K210" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L210">
-        <v>4</v>
+        <v>3072</v>
       </c>
       <c r="M210">
         <v>6083</v>
@@ -9891,14 +9897,14 @@
       <c r="I211">
         <v>1</v>
       </c>
-      <c r="J211">
-        <v>3</v>
+      <c r="J211" t="s">
+        <v>82</v>
       </c>
       <c r="K211" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>2003</v>
       </c>
       <c r="M211">
         <v>6083</v>
@@ -9935,14 +9941,14 @@
       <c r="I212">
         <v>1</v>
       </c>
-      <c r="J212">
-        <v>3</v>
+      <c r="J212" t="s">
+        <v>81</v>
       </c>
       <c r="K212" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>70469</v>
       </c>
       <c r="M212">
         <v>6085</v>
@@ -9979,14 +9985,14 @@
       <c r="I213">
         <v>1</v>
       </c>
-      <c r="J213">
-        <v>3</v>
+      <c r="J213" t="s">
+        <v>81</v>
       </c>
       <c r="K213" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>109964</v>
       </c>
       <c r="M213">
         <v>6085</v>
@@ -10023,14 +10029,14 @@
       <c r="I214">
         <v>1</v>
       </c>
-      <c r="J214">
-        <v>3</v>
+      <c r="J214" t="s">
+        <v>82</v>
       </c>
       <c r="K214" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>35569</v>
       </c>
       <c r="M214">
         <v>6085</v>
@@ -10067,14 +10073,14 @@
       <c r="I215">
         <v>1</v>
       </c>
-      <c r="J215">
-        <v>3</v>
+      <c r="J215" t="s">
+        <v>82</v>
       </c>
       <c r="K215" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>10895</v>
       </c>
       <c r="M215">
         <v>6085</v>
@@ -10111,14 +10117,14 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="J216">
-        <v>3</v>
+      <c r="J216" t="s">
+        <v>82</v>
       </c>
       <c r="K216" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>6013</v>
       </c>
       <c r="M216">
         <v>6085</v>
@@ -10155,14 +10161,14 @@
       <c r="I217">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>3</v>
+      <c r="J217" t="s">
+        <v>81</v>
       </c>
       <c r="K217" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>25172</v>
       </c>
       <c r="M217">
         <v>6087</v>
@@ -10199,14 +10205,14 @@
       <c r="I218">
         <v>1</v>
       </c>
-      <c r="J218">
-        <v>3</v>
+      <c r="J218" t="s">
+        <v>81</v>
       </c>
       <c r="K218" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L218">
-        <v>4</v>
+        <v>20106</v>
       </c>
       <c r="M218">
         <v>6087</v>
@@ -10243,14 +10249,14 @@
       <c r="I219">
         <v>1</v>
       </c>
-      <c r="J219">
-        <v>3</v>
+      <c r="J219" t="s">
+        <v>82</v>
       </c>
       <c r="K219" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>5884</v>
       </c>
       <c r="M219">
         <v>6087</v>
@@ -10287,14 +10293,14 @@
       <c r="I220">
         <v>1</v>
       </c>
-      <c r="J220">
-        <v>3</v>
+      <c r="J220" t="s">
+        <v>82</v>
       </c>
       <c r="K220" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>1640</v>
       </c>
       <c r="M220">
         <v>6087</v>
@@ -10331,14 +10337,14 @@
       <c r="I221">
         <v>1</v>
       </c>
-      <c r="J221">
-        <v>3</v>
+      <c r="J221" t="s">
+        <v>82</v>
       </c>
       <c r="K221" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>722</v>
       </c>
       <c r="M221">
         <v>6087</v>
@@ -10375,14 +10381,14 @@
       <c r="I222">
         <v>1</v>
       </c>
-      <c r="J222">
-        <v>3</v>
+      <c r="J222" t="s">
+        <v>81</v>
       </c>
       <c r="K222" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>6141</v>
       </c>
       <c r="M222">
         <v>6089</v>
@@ -10419,14 +10425,14 @@
       <c r="I223">
         <v>1</v>
       </c>
-      <c r="J223">
-        <v>3</v>
+      <c r="J223" t="s">
+        <v>81</v>
       </c>
       <c r="K223" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>5876</v>
       </c>
       <c r="M223">
         <v>6089</v>
@@ -10463,14 +10469,14 @@
       <c r="I224">
         <v>1</v>
       </c>
-      <c r="J224">
-        <v>3</v>
+      <c r="J224" t="s">
+        <v>82</v>
       </c>
       <c r="K224" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>14823</v>
       </c>
       <c r="M224">
         <v>6089</v>
@@ -10507,14 +10513,14 @@
       <c r="I225">
         <v>1</v>
       </c>
-      <c r="J225">
-        <v>3</v>
+      <c r="J225" t="s">
+        <v>82</v>
       </c>
       <c r="K225" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>1121</v>
       </c>
       <c r="M225">
         <v>6089</v>
@@ -10551,14 +10557,14 @@
       <c r="I226">
         <v>1</v>
       </c>
-      <c r="J226">
-        <v>3</v>
+      <c r="J226" t="s">
+        <v>82</v>
       </c>
       <c r="K226" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>1567</v>
       </c>
       <c r="M226">
         <v>6089</v>
@@ -10595,14 +10601,14 @@
       <c r="I227">
         <v>1</v>
       </c>
-      <c r="J227">
-        <v>3</v>
+      <c r="J227" t="s">
+        <v>81</v>
       </c>
       <c r="K227" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>276</v>
       </c>
       <c r="M227">
         <v>6091</v>
@@ -10639,14 +10645,14 @@
       <c r="I228">
         <v>1</v>
       </c>
-      <c r="J228">
-        <v>3</v>
+      <c r="J228" t="s">
+        <v>81</v>
       </c>
       <c r="K228" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="M228">
         <v>6091</v>
@@ -10683,14 +10689,14 @@
       <c r="I229">
         <v>1</v>
       </c>
-      <c r="J229">
-        <v>3</v>
+      <c r="J229" t="s">
+        <v>82</v>
       </c>
       <c r="K229" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>498</v>
       </c>
       <c r="M229">
         <v>6091</v>
@@ -10727,14 +10733,14 @@
       <c r="I230">
         <v>1</v>
       </c>
-      <c r="J230">
-        <v>3</v>
+      <c r="J230" t="s">
+        <v>82</v>
       </c>
       <c r="K230" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="M230">
         <v>6091</v>
@@ -10771,14 +10777,14 @@
       <c r="I231">
         <v>1</v>
       </c>
-      <c r="J231">
-        <v>3</v>
+      <c r="J231" t="s">
+        <v>82</v>
       </c>
       <c r="K231" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="M231">
         <v>6091</v>
@@ -10815,14 +10821,14 @@
       <c r="I232">
         <v>1</v>
       </c>
-      <c r="J232">
-        <v>3</v>
+      <c r="J232" t="s">
+        <v>81</v>
       </c>
       <c r="K232" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>2302</v>
       </c>
       <c r="M232">
         <v>6093</v>
@@ -10859,14 +10865,14 @@
       <c r="I233">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>3</v>
+      <c r="J233" t="s">
+        <v>81</v>
       </c>
       <c r="K233" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>1586</v>
       </c>
       <c r="M233">
         <v>6093</v>
@@ -10903,14 +10909,14 @@
       <c r="I234">
         <v>1</v>
       </c>
-      <c r="J234">
-        <v>3</v>
+      <c r="J234" t="s">
+        <v>82</v>
       </c>
       <c r="K234" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>3574</v>
       </c>
       <c r="M234">
         <v>6093</v>
@@ -10947,14 +10953,14 @@
       <c r="I235">
         <v>1</v>
       </c>
-      <c r="J235">
-        <v>3</v>
+      <c r="J235" t="s">
+        <v>82</v>
       </c>
       <c r="K235" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="M235">
         <v>6093</v>
@@ -10991,14 +10997,14 @@
       <c r="I236">
         <v>1</v>
       </c>
-      <c r="J236">
-        <v>3</v>
+      <c r="J236" t="s">
+        <v>82</v>
       </c>
       <c r="K236" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="M236">
         <v>6093</v>
@@ -11035,14 +11041,14 @@
       <c r="I237">
         <v>1</v>
       </c>
-      <c r="J237">
-        <v>3</v>
+      <c r="J237" t="s">
+        <v>81</v>
       </c>
       <c r="K237" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>23631</v>
       </c>
       <c r="M237">
         <v>6095</v>
@@ -11079,14 +11085,14 @@
       <c r="I238">
         <v>1</v>
       </c>
-      <c r="J238">
-        <v>3</v>
+      <c r="J238" t="s">
+        <v>81</v>
       </c>
       <c r="K238" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>31754</v>
       </c>
       <c r="M238">
         <v>6095</v>
@@ -11123,14 +11129,14 @@
       <c r="I239">
         <v>1</v>
       </c>
-      <c r="J239">
-        <v>3</v>
+      <c r="J239" t="s">
+        <v>82</v>
       </c>
       <c r="K239" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>17549</v>
       </c>
       <c r="M239">
         <v>6095</v>
@@ -11167,14 +11173,14 @@
       <c r="I240">
         <v>1</v>
       </c>
-      <c r="J240">
-        <v>3</v>
+      <c r="J240" t="s">
+        <v>82</v>
       </c>
       <c r="K240" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>2267</v>
       </c>
       <c r="M240">
         <v>6095</v>
@@ -11211,14 +11217,14 @@
       <c r="I241">
         <v>1</v>
       </c>
-      <c r="J241">
-        <v>3</v>
+      <c r="J241" t="s">
+        <v>82</v>
       </c>
       <c r="K241" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>1950</v>
       </c>
       <c r="M241">
         <v>6095</v>
@@ -11255,14 +11261,14 @@
       <c r="I242">
         <v>1</v>
       </c>
-      <c r="J242">
-        <v>3</v>
+      <c r="J242" t="s">
+        <v>81</v>
       </c>
       <c r="K242" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>42716</v>
       </c>
       <c r="M242">
         <v>6097</v>
@@ -11299,14 +11305,14 @@
       <c r="I243">
         <v>1</v>
       </c>
-      <c r="J243">
-        <v>3</v>
+      <c r="J243" t="s">
+        <v>81</v>
       </c>
       <c r="K243" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>44924</v>
       </c>
       <c r="M243">
         <v>6097</v>
@@ -11343,14 +11349,14 @@
       <c r="I244">
         <v>1</v>
       </c>
-      <c r="J244">
-        <v>3</v>
+      <c r="J244" t="s">
+        <v>82</v>
       </c>
       <c r="K244" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>16603</v>
       </c>
       <c r="M244">
         <v>6097</v>
@@ -11387,14 +11393,14 @@
       <c r="I245">
         <v>1</v>
       </c>
-      <c r="J245">
-        <v>3</v>
+      <c r="J245" t="s">
+        <v>82</v>
       </c>
       <c r="K245" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>4426</v>
       </c>
       <c r="M245">
         <v>6097</v>
@@ -11431,14 +11437,14 @@
       <c r="I246">
         <v>1</v>
       </c>
-      <c r="J246">
-        <v>3</v>
+      <c r="J246" t="s">
+        <v>82</v>
       </c>
       <c r="K246" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>2035</v>
       </c>
       <c r="M246">
         <v>6097</v>
@@ -11475,14 +11481,14 @@
       <c r="I247">
         <v>1</v>
       </c>
-      <c r="J247">
-        <v>3</v>
+      <c r="J247" t="s">
+        <v>81</v>
       </c>
       <c r="K247" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>12087</v>
       </c>
       <c r="M247">
         <v>6099</v>
@@ -11519,14 +11525,14 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248">
-        <v>3</v>
+      <c r="J248" t="s">
+        <v>81</v>
       </c>
       <c r="K248" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L248">
-        <v>4</v>
+        <v>15310</v>
       </c>
       <c r="M248">
         <v>6099</v>
@@ -11563,14 +11569,14 @@
       <c r="I249">
         <v>1</v>
       </c>
-      <c r="J249">
-        <v>3</v>
+      <c r="J249" t="s">
+        <v>82</v>
       </c>
       <c r="K249" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>15391</v>
       </c>
       <c r="M249">
         <v>6099</v>
@@ -11607,14 +11613,14 @@
       <c r="I250">
         <v>1</v>
       </c>
-      <c r="J250">
-        <v>3</v>
+      <c r="J250" t="s">
+        <v>82</v>
       </c>
       <c r="K250" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>1558</v>
       </c>
       <c r="M250">
         <v>6099</v>
@@ -11651,14 +11657,14 @@
       <c r="I251">
         <v>1</v>
       </c>
-      <c r="J251">
-        <v>3</v>
+      <c r="J251" t="s">
+        <v>82</v>
       </c>
       <c r="K251" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>2202</v>
       </c>
       <c r="M251">
         <v>6099</v>
@@ -11695,14 +11701,14 @@
       <c r="I252">
         <v>1</v>
       </c>
-      <c r="J252">
-        <v>3</v>
+      <c r="J252" t="s">
+        <v>81</v>
       </c>
       <c r="K252" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>1895</v>
       </c>
       <c r="M252">
         <v>6101</v>
@@ -11739,14 +11745,14 @@
       <c r="I253">
         <v>1</v>
       </c>
-      <c r="J253">
-        <v>3</v>
+      <c r="J253" t="s">
+        <v>81</v>
       </c>
       <c r="K253" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L253">
-        <v>4</v>
+        <v>2371</v>
       </c>
       <c r="M253">
         <v>6101</v>
@@ -11783,14 +11789,14 @@
       <c r="I254">
         <v>1</v>
       </c>
-      <c r="J254">
-        <v>3</v>
+      <c r="J254" t="s">
+        <v>82</v>
       </c>
       <c r="K254" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>4698</v>
       </c>
       <c r="M254">
         <v>6101</v>
@@ -11827,14 +11833,14 @@
       <c r="I255">
         <v>1</v>
       </c>
-      <c r="J255">
-        <v>3</v>
+      <c r="J255" t="s">
+        <v>82</v>
       </c>
       <c r="K255" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>357</v>
       </c>
       <c r="M255">
         <v>6101</v>
@@ -11871,14 +11877,14 @@
       <c r="I256">
         <v>1</v>
       </c>
-      <c r="J256">
-        <v>3</v>
+      <c r="J256" t="s">
+        <v>82</v>
       </c>
       <c r="K256" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>417</v>
       </c>
       <c r="M256">
         <v>6101</v>
@@ -11915,14 +11921,14 @@
       <c r="I257">
         <v>1</v>
       </c>
-      <c r="J257">
-        <v>3</v>
+      <c r="J257" t="s">
+        <v>81</v>
       </c>
       <c r="K257" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>1545</v>
       </c>
       <c r="M257">
         <v>6103</v>
@@ -11959,14 +11965,14 @@
       <c r="I258">
         <v>1</v>
       </c>
-      <c r="J258">
-        <v>3</v>
+      <c r="J258" t="s">
+        <v>81</v>
       </c>
       <c r="K258" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>1488</v>
       </c>
       <c r="M258">
         <v>6103</v>
@@ -12003,14 +12009,14 @@
       <c r="I259">
         <v>1</v>
       </c>
-      <c r="J259">
-        <v>3</v>
+      <c r="J259" t="s">
+        <v>82</v>
       </c>
       <c r="K259" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>3941</v>
       </c>
       <c r="M259">
         <v>6103</v>
@@ -12047,14 +12053,14 @@
       <c r="I260">
         <v>1</v>
       </c>
-      <c r="J260">
-        <v>3</v>
+      <c r="J260" t="s">
+        <v>82</v>
       </c>
       <c r="K260" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="M260">
         <v>6103</v>
@@ -12091,14 +12097,14 @@
       <c r="I261">
         <v>1</v>
       </c>
-      <c r="J261">
-        <v>3</v>
+      <c r="J261" t="s">
+        <v>82</v>
       </c>
       <c r="K261" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>341</v>
       </c>
       <c r="M261">
         <v>6103</v>
@@ -12135,14 +12141,14 @@
       <c r="I262">
         <v>1</v>
       </c>
-      <c r="J262">
-        <v>3</v>
+      <c r="J262" t="s">
+        <v>81</v>
       </c>
       <c r="K262" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>954</v>
       </c>
       <c r="M262">
         <v>6105</v>
@@ -12179,14 +12185,14 @@
       <c r="I263">
         <v>1</v>
       </c>
-      <c r="J263">
-        <v>3</v>
+      <c r="J263" t="s">
+        <v>81</v>
       </c>
       <c r="K263" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>586</v>
       </c>
       <c r="M263">
         <v>6105</v>
@@ -12223,14 +12229,14 @@
       <c r="I264">
         <v>1</v>
       </c>
-      <c r="J264">
-        <v>3</v>
+      <c r="J264" t="s">
+        <v>82</v>
       </c>
       <c r="K264" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>1027</v>
       </c>
       <c r="M264">
         <v>6105</v>
@@ -12267,14 +12273,14 @@
       <c r="I265">
         <v>1</v>
       </c>
-      <c r="J265">
-        <v>3</v>
+      <c r="J265" t="s">
+        <v>82</v>
       </c>
       <c r="K265" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="M265">
         <v>6105</v>
@@ -12311,14 +12317,14 @@
       <c r="I266">
         <v>1</v>
       </c>
-      <c r="J266">
-        <v>3</v>
+      <c r="J266" t="s">
+        <v>82</v>
       </c>
       <c r="K266" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="M266">
         <v>6105</v>
@@ -12355,14 +12361,14 @@
       <c r="I267">
         <v>1</v>
       </c>
-      <c r="J267">
-        <v>3</v>
+      <c r="J267" t="s">
+        <v>81</v>
       </c>
       <c r="K267" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>5756</v>
       </c>
       <c r="M267">
         <v>6107</v>
@@ -12399,14 +12405,14 @@
       <c r="I268">
         <v>1</v>
       </c>
-      <c r="J268">
-        <v>3</v>
+      <c r="J268" t="s">
+        <v>81</v>
       </c>
       <c r="K268" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>8376</v>
       </c>
       <c r="M268">
         <v>6107</v>
@@ -12443,14 +12449,14 @@
       <c r="I269">
         <v>1</v>
       </c>
-      <c r="J269">
-        <v>3</v>
+      <c r="J269" t="s">
+        <v>82</v>
       </c>
       <c r="K269" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L269">
-        <v>4</v>
+        <v>15335</v>
       </c>
       <c r="M269">
         <v>6107</v>
@@ -12487,14 +12493,14 @@
       <c r="I270">
         <v>1</v>
       </c>
-      <c r="J270">
-        <v>3</v>
+      <c r="J270" t="s">
+        <v>82</v>
       </c>
       <c r="K270" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L270">
-        <v>4</v>
+        <v>1260</v>
       </c>
       <c r="M270">
         <v>6107</v>
@@ -12531,14 +12537,14 @@
       <c r="I271">
         <v>1</v>
       </c>
-      <c r="J271">
-        <v>3</v>
+      <c r="J271" t="s">
+        <v>82</v>
       </c>
       <c r="K271" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>1578</v>
       </c>
       <c r="M271">
         <v>6107</v>
@@ -12575,14 +12581,14 @@
       <c r="I272">
         <v>1</v>
       </c>
-      <c r="J272">
-        <v>3</v>
+      <c r="J272" t="s">
+        <v>81</v>
       </c>
       <c r="K272" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>2624</v>
       </c>
       <c r="M272">
         <v>6109</v>
@@ -12619,14 +12625,14 @@
       <c r="I273">
         <v>1</v>
       </c>
-      <c r="J273">
-        <v>3</v>
+      <c r="J273" t="s">
+        <v>81</v>
       </c>
       <c r="K273" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L273">
-        <v>4</v>
+        <v>2852</v>
       </c>
       <c r="M273">
         <v>6109</v>
@@ -12663,14 +12669,14 @@
       <c r="I274">
         <v>1</v>
       </c>
-      <c r="J274">
-        <v>3</v>
+      <c r="J274" t="s">
+        <v>82</v>
       </c>
       <c r="K274" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L274">
-        <v>4</v>
+        <v>4950</v>
       </c>
       <c r="M274">
         <v>6109</v>
@@ -12707,14 +12713,14 @@
       <c r="I275">
         <v>1</v>
       </c>
-      <c r="J275">
-        <v>3</v>
+      <c r="J275" t="s">
+        <v>82</v>
       </c>
       <c r="K275" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L275">
-        <v>4</v>
+        <v>427</v>
       </c>
       <c r="M275">
         <v>6109</v>
@@ -12751,14 +12757,14 @@
       <c r="I276">
         <v>1</v>
       </c>
-      <c r="J276">
-        <v>3</v>
+      <c r="J276" t="s">
+        <v>82</v>
       </c>
       <c r="K276" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L276">
-        <v>4</v>
+        <v>441</v>
       </c>
       <c r="M276">
         <v>6109</v>
@@ -12795,14 +12801,14 @@
       <c r="I277">
         <v>1</v>
       </c>
-      <c r="J277">
-        <v>3</v>
+      <c r="J277" t="s">
+        <v>81</v>
       </c>
       <c r="K277" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L277">
-        <v>4</v>
+        <v>38524</v>
       </c>
       <c r="M277">
         <v>6111</v>
@@ -12839,14 +12845,14 @@
       <c r="I278">
         <v>1</v>
       </c>
-      <c r="J278">
-        <v>3</v>
+      <c r="J278" t="s">
+        <v>81</v>
       </c>
       <c r="K278" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L278">
-        <v>4</v>
+        <v>45849</v>
       </c>
       <c r="M278">
         <v>6111</v>
@@ -12883,14 +12889,14 @@
       <c r="I279">
         <v>1</v>
       </c>
-      <c r="J279">
-        <v>3</v>
+      <c r="J279" t="s">
+        <v>82</v>
       </c>
       <c r="K279" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L279">
-        <v>4</v>
+        <v>38494</v>
       </c>
       <c r="M279">
         <v>6111</v>
@@ -12927,14 +12933,14 @@
       <c r="I280">
         <v>1</v>
       </c>
-      <c r="J280">
-        <v>3</v>
+      <c r="J280" t="s">
+        <v>82</v>
       </c>
       <c r="K280" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L280">
-        <v>4</v>
+        <v>6500</v>
       </c>
       <c r="M280">
         <v>6111</v>
@@ -12971,14 +12977,14 @@
       <c r="I281">
         <v>1</v>
       </c>
-      <c r="J281">
-        <v>3</v>
+      <c r="J281" t="s">
+        <v>82</v>
       </c>
       <c r="K281" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L281">
-        <v>4</v>
+        <v>4788</v>
       </c>
       <c r="M281">
         <v>6111</v>
@@ -13015,14 +13021,14 @@
       <c r="I282">
         <v>1</v>
       </c>
-      <c r="J282">
-        <v>3</v>
+      <c r="J282" t="s">
+        <v>81</v>
       </c>
       <c r="K282" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L282">
-        <v>4</v>
+        <v>11533</v>
       </c>
       <c r="M282">
         <v>6113</v>
@@ -13059,14 +13065,14 @@
       <c r="I283">
         <v>1</v>
       </c>
-      <c r="J283">
-        <v>3</v>
+      <c r="J283" t="s">
+        <v>81</v>
       </c>
       <c r="K283" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L283">
-        <v>4</v>
+        <v>12568</v>
       </c>
       <c r="M283">
         <v>6113</v>
@@ -13103,14 +13109,14 @@
       <c r="I284">
         <v>1</v>
       </c>
-      <c r="J284">
-        <v>3</v>
+      <c r="J284" t="s">
+        <v>82</v>
       </c>
       <c r="K284" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L284">
-        <v>4</v>
+        <v>5111</v>
       </c>
       <c r="M284">
         <v>6113</v>
@@ -13147,14 +13153,14 @@
       <c r="I285">
         <v>1</v>
       </c>
-      <c r="J285">
-        <v>3</v>
+      <c r="J285" t="s">
+        <v>82</v>
       </c>
       <c r="K285" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L285">
-        <v>4</v>
+        <v>1090</v>
       </c>
       <c r="M285">
         <v>6113</v>
@@ -13191,14 +13197,14 @@
       <c r="I286">
         <v>1</v>
       </c>
-      <c r="J286">
-        <v>3</v>
+      <c r="J286" t="s">
+        <v>82</v>
       </c>
       <c r="K286" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L286">
-        <v>4</v>
+        <v>558</v>
       </c>
       <c r="M286">
         <v>6113</v>
@@ -13235,14 +13241,14 @@
       <c r="I287">
         <v>1</v>
       </c>
-      <c r="J287">
-        <v>3</v>
+      <c r="J287" t="s">
+        <v>81</v>
       </c>
       <c r="K287" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L287">
-        <v>4</v>
+        <v>1731</v>
       </c>
       <c r="M287">
         <v>6115</v>
@@ -13279,14 +13285,14 @@
       <c r="I288">
         <v>1</v>
       </c>
-      <c r="J288">
-        <v>3</v>
+      <c r="J288" t="s">
+        <v>81</v>
       </c>
       <c r="K288" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L288">
-        <v>4</v>
+        <v>1573</v>
       </c>
       <c r="M288">
         <v>6115</v>
@@ -13323,14 +13329,14 @@
       <c r="I289">
         <v>1</v>
       </c>
-      <c r="J289">
-        <v>3</v>
+      <c r="J289" t="s">
+        <v>82</v>
       </c>
       <c r="K289" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L289">
-        <v>4</v>
+        <v>3211</v>
       </c>
       <c r="M289">
         <v>6115</v>
@@ -13367,14 +13373,14 @@
       <c r="I290">
         <v>1</v>
       </c>
-      <c r="J290">
-        <v>3</v>
+      <c r="J290" t="s">
+        <v>82</v>
       </c>
       <c r="K290" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L290">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="M290">
         <v>6115</v>
@@ -13411,14 +13417,14 @@
       <c r="I291">
         <v>1</v>
       </c>
-      <c r="J291">
-        <v>3</v>
+      <c r="J291" t="s">
+        <v>82</v>
       </c>
       <c r="K291" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L291">
-        <v>4</v>
+        <v>319</v>
       </c>
       <c r="M291">
         <v>6115</v>
